--- a/biology/Zoologie/Gophère_à_bords_jaunes/Gophère_à_bords_jaunes.xlsx
+++ b/biology/Zoologie/Gophère_à_bords_jaunes/Gophère_à_bords_jaunes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Goph%C3%A8re_%C3%A0_bords_jaunes</t>
+          <t>Gophère_à_bords_jaunes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gopherus flavomarginatus
-Gopherus flavomarginatus est une espèce de tortues de la famille des Testudinidae[1]. En français elle est appelée Gophère à bords jaunes ou Tortue fouisseuse du Mexique.
+Gopherus flavomarginatus est une espèce de tortues de la famille des Testudinidae. En français elle est appelée Gophère à bords jaunes ou Tortue fouisseuse du Mexique.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Goph%C3%A8re_%C3%A0_bords_jaunes</t>
+          <t>Gophère_à_bords_jaunes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Mexique dans les États de Chihuahua, du Coahuila et de Durango. Elle a été introduite au Nouveau-Mexique aux États-Unis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Mexique dans les États de Chihuahua, du Coahuila et de Durango. Elle a été introduite au Nouveau-Mexique aux États-Unis.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Goph%C3%A8re_%C3%A0_bords_jaunes</t>
+          <t>Gophère_à_bords_jaunes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Legler, 1959 : A new tortoise, genus Gopherus, from northcentral Mexico. University of Kansas Publications of the Museum of Natural History, vol. 11, no 5, p. 335–343 (texte intégral).</t>
         </is>
